--- a/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>

--- a/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -644,7 +644,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -720,7 +720,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -758,7 +758,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -796,7 +796,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -834,7 +834,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">

--- a/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>

--- a/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>

--- a/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B081JDLX48_fallback_WITH_PO.xlsx
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
